--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col2a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col2a1-Mag.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H2">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I2">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J2">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N2">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O2">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P2">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q2">
-        <v>0.00485342885688889</v>
+        <v>3.578239111111111E-05</v>
       </c>
       <c r="R2">
-        <v>0.043680859712</v>
+        <v>0.00032204152</v>
       </c>
       <c r="S2">
-        <v>0.06164626628292285</v>
+        <v>0.000137105310576797</v>
       </c>
       <c r="T2">
-        <v>0.06164626628292284</v>
+        <v>0.0001371053105767971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.009821333333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.029464</v>
+      </c>
+      <c r="I3">
+        <v>0.06297798848338983</v>
+      </c>
+      <c r="J3">
+        <v>0.06297798848338984</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.03006733333333333</v>
-      </c>
-      <c r="H3">
-        <v>0.090202</v>
-      </c>
-      <c r="I3">
-        <v>0.2079297388257532</v>
-      </c>
-      <c r="J3">
-        <v>0.2079297388257532</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M3">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N3">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O3">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P3">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q3">
-        <v>0.01151694124777778</v>
+        <v>0.01640051030844444</v>
       </c>
       <c r="R3">
-        <v>0.10365247123</v>
+        <v>0.147604592776</v>
       </c>
       <c r="S3">
-        <v>0.1462834725428304</v>
+        <v>0.06284088317281303</v>
       </c>
       <c r="T3">
-        <v>0.1462834725428304</v>
+        <v>0.06284088317281304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.151954</v>
       </c>
       <c r="I4">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J4">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N4">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O4">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P4">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q4">
-        <v>0.008176070691555556</v>
+        <v>0.0001845396911111111</v>
       </c>
       <c r="R4">
-        <v>0.07358463622400001</v>
+        <v>0.00166085722</v>
       </c>
       <c r="S4">
-        <v>0.1038491025338159</v>
+        <v>0.0007070900204787747</v>
       </c>
       <c r="T4">
-        <v>0.1038491025338159</v>
+        <v>0.0007070900204787748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.151954</v>
       </c>
       <c r="I5">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J5">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N5">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O5">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P5">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q5">
-        <v>0.01940140230111111</v>
+        <v>0.08458196929844444</v>
       </c>
       <c r="R5">
-        <v>0.17461262071</v>
+        <v>0.7612377236860001</v>
       </c>
       <c r="S5">
-        <v>0.2464286688407491</v>
+        <v>0.3240878211254966</v>
       </c>
       <c r="T5">
-        <v>0.2464286688407491</v>
+        <v>0.3240878211254966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H6">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I6">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J6">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N6">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O6">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P6">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q6">
-        <v>0.01031217771377778</v>
+        <v>0.0003478508933333334</v>
       </c>
       <c r="R6">
-        <v>0.09280959942399999</v>
+        <v>0.00313065804</v>
       </c>
       <c r="S6">
-        <v>0.1309810593799172</v>
+        <v>0.001332840072559423</v>
       </c>
       <c r="T6">
-        <v>0.1309810593799172</v>
+        <v>0.001332840072559423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H7">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I7">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J7">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N7">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O7">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P7">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q7">
-        <v>0.02447027624555555</v>
+        <v>0.1594340675613334</v>
       </c>
       <c r="R7">
-        <v>0.22023248621</v>
+        <v>1.434906608052</v>
       </c>
       <c r="S7">
-        <v>0.3108114304197647</v>
+        <v>0.6108942602980754</v>
       </c>
       <c r="T7">
-        <v>0.3108114304197646</v>
+        <v>0.6108942602980755</v>
       </c>
     </row>
   </sheetData>
